--- a/data/pca/factorExposure/factorExposure_2015-05-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01977091325314513</v>
+        <v>0.01171448324719885</v>
       </c>
       <c r="C2">
-        <v>0.02164584146919116</v>
+        <v>-0.05299426709952751</v>
       </c>
       <c r="D2">
-        <v>0.1094671079885833</v>
+        <v>-0.1279229043083689</v>
       </c>
       <c r="E2">
-        <v>-0.01381941319199026</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02562654855425027</v>
+      </c>
+      <c r="F2">
+        <v>-0.03215444178255582</v>
+      </c>
+      <c r="G2">
+        <v>-0.1166886560157416</v>
+      </c>
+      <c r="H2">
+        <v>0.09049409926376244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04284031689536232</v>
+        <v>0.01770350199435227</v>
       </c>
       <c r="C4">
-        <v>0.07257976214530752</v>
+        <v>-0.1070214170706577</v>
       </c>
       <c r="D4">
-        <v>0.126287444174828</v>
+        <v>-0.1315517727120739</v>
       </c>
       <c r="E4">
-        <v>-0.08813443493252068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01303093527816837</v>
+      </c>
+      <c r="F4">
+        <v>-0.09162443305478397</v>
+      </c>
+      <c r="G4">
+        <v>-0.001595426760084712</v>
+      </c>
+      <c r="H4">
+        <v>0.04969360029935799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02096484791722722</v>
+        <v>0.02791423800771565</v>
       </c>
       <c r="C6">
-        <v>0.01166386984337966</v>
+        <v>-0.03559582255160646</v>
       </c>
       <c r="D6">
-        <v>0.1388072328013596</v>
+        <v>-0.1226997173067206</v>
       </c>
       <c r="E6">
-        <v>-0.04148344728454904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06328827569465084</v>
+      </c>
+      <c r="F6">
+        <v>-0.04490734024529546</v>
+      </c>
+      <c r="G6">
+        <v>0.01108378836202046</v>
+      </c>
+      <c r="H6">
+        <v>0.03990498878224827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.002157134268736128</v>
+        <v>0.00830524845510917</v>
       </c>
       <c r="C7">
-        <v>0.02253981719907025</v>
+        <v>-0.03793494585258474</v>
       </c>
       <c r="D7">
-        <v>0.1107392901346967</v>
+        <v>-0.09606570231138088</v>
       </c>
       <c r="E7">
-        <v>-0.008355485997433059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05544112471965486</v>
+      </c>
+      <c r="F7">
+        <v>-0.009687971869981335</v>
+      </c>
+      <c r="G7">
+        <v>0.01864061517719167</v>
+      </c>
+      <c r="H7">
+        <v>0.07514624269019017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002898829366068518</v>
+        <v>-0.00855785386343412</v>
       </c>
       <c r="C8">
-        <v>0.02671374620673341</v>
+        <v>-0.03696420758446867</v>
       </c>
       <c r="D8">
-        <v>0.07815255000979462</v>
+        <v>-0.07438550789406165</v>
       </c>
       <c r="E8">
-        <v>-0.02263297136764709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04030310388305415</v>
+      </c>
+      <c r="F8">
+        <v>-0.04748765788605176</v>
+      </c>
+      <c r="G8">
+        <v>-0.06144592893449762</v>
+      </c>
+      <c r="H8">
+        <v>0.01244467921180544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03498129695222166</v>
+        <v>0.01261027751815683</v>
       </c>
       <c r="C9">
-        <v>0.06196278942347412</v>
+        <v>-0.08852495222877924</v>
       </c>
       <c r="D9">
-        <v>0.1274022619758029</v>
+        <v>-0.1127871226716909</v>
       </c>
       <c r="E9">
-        <v>-0.07203164434290435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01412643224816257</v>
+      </c>
+      <c r="F9">
+        <v>-0.06048837785519937</v>
+      </c>
+      <c r="G9">
+        <v>0.0188082699829283</v>
+      </c>
+      <c r="H9">
+        <v>0.05695045174305594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1770712132052162</v>
+        <v>0.2418582915684926</v>
       </c>
       <c r="C10">
-        <v>-0.1664399811285875</v>
+        <v>0.08799499337839686</v>
       </c>
       <c r="D10">
-        <v>-0.0007954533103157192</v>
+        <v>0.003830800812261203</v>
       </c>
       <c r="E10">
-        <v>-0.04310398899338112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01037929381665405</v>
+      </c>
+      <c r="F10">
+        <v>-0.04261888773304379</v>
+      </c>
+      <c r="G10">
+        <v>-0.0009761861582051266</v>
+      </c>
+      <c r="H10">
+        <v>-0.03269891460877322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01907612371478461</v>
+        <v>0.009439741490977982</v>
       </c>
       <c r="C11">
-        <v>0.04199755826297611</v>
+        <v>-0.05759731980668682</v>
       </c>
       <c r="D11">
-        <v>0.04591675453488391</v>
+        <v>-0.0410989549197843</v>
       </c>
       <c r="E11">
-        <v>0.0170476036972067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02051366487014535</v>
+      </c>
+      <c r="F11">
+        <v>0.01479260985209598</v>
+      </c>
+      <c r="G11">
+        <v>0.01603723969463909</v>
+      </c>
+      <c r="H11">
+        <v>0.04788150074895085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0190440587911336</v>
+        <v>0.009571019300194489</v>
       </c>
       <c r="C12">
-        <v>0.04130875136438637</v>
+        <v>-0.05068910638269497</v>
       </c>
       <c r="D12">
-        <v>0.05984310147106335</v>
+        <v>-0.04548024805800586</v>
       </c>
       <c r="E12">
-        <v>0.005443196898400188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01583122330042855</v>
+      </c>
+      <c r="F12">
+        <v>0.01720431039854998</v>
+      </c>
+      <c r="G12">
+        <v>0.03436412817243299</v>
+      </c>
+      <c r="H12">
+        <v>0.06279870670199128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.003612081197859222</v>
+        <v>-0.002564442529969304</v>
       </c>
       <c r="C13">
-        <v>0.02290033649874975</v>
+        <v>-0.04820231585596952</v>
       </c>
       <c r="D13">
-        <v>0.1384424117298681</v>
+        <v>-0.1458985040333521</v>
       </c>
       <c r="E13">
-        <v>-0.039022460061626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04207802595907253</v>
+      </c>
+      <c r="F13">
+        <v>-0.0334805099815094</v>
+      </c>
+      <c r="G13">
+        <v>-0.01294701800654295</v>
+      </c>
+      <c r="H13">
+        <v>0.07226776613959776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00585259634039391</v>
+        <v>0.001366158565165534</v>
       </c>
       <c r="C14">
-        <v>0.0157600393112948</v>
+        <v>-0.03130262649663638</v>
       </c>
       <c r="D14">
-        <v>0.09557969440920229</v>
+        <v>-0.1004061579940012</v>
       </c>
       <c r="E14">
-        <v>-0.01571947216545244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05247958894087396</v>
+      </c>
+      <c r="F14">
+        <v>-0.03540343299028871</v>
+      </c>
+      <c r="G14">
+        <v>0.001724775686330115</v>
+      </c>
+      <c r="H14">
+        <v>0.1322060329203232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003007204984855389</v>
+        <v>-0.002587770133910316</v>
       </c>
       <c r="C15">
-        <v>0.01068320172720086</v>
+        <v>-0.0271857714097355</v>
       </c>
       <c r="D15">
-        <v>0.03257277712690603</v>
+        <v>-0.05909096911054412</v>
       </c>
       <c r="E15">
-        <v>0.00212705085311158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.011956247708277</v>
+      </c>
+      <c r="F15">
+        <v>-0.00708098426776357</v>
+      </c>
+      <c r="G15">
+        <v>-0.01284017863479616</v>
+      </c>
+      <c r="H15">
+        <v>0.04118194747929028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01809912493738541</v>
+        <v>0.008918992516938017</v>
       </c>
       <c r="C16">
-        <v>0.03730917722996647</v>
+        <v>-0.05076211565503389</v>
       </c>
       <c r="D16">
-        <v>0.05297381235333513</v>
+        <v>-0.04373701013988764</v>
       </c>
       <c r="E16">
-        <v>0.007228374528577917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02277407869706952</v>
+      </c>
+      <c r="F16">
+        <v>0.009187219695563846</v>
+      </c>
+      <c r="G16">
+        <v>0.02547130481876657</v>
+      </c>
+      <c r="H16">
+        <v>0.04343543561550369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.003028736976793582</v>
+        <v>-0.0004077873327073945</v>
       </c>
       <c r="C19">
-        <v>0.01827089952998914</v>
+        <v>-0.01723293626720365</v>
       </c>
       <c r="D19">
-        <v>0.1011444213580128</v>
+        <v>-0.06323002923492513</v>
       </c>
       <c r="E19">
-        <v>-0.04903054052156706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01073207446374126</v>
+      </c>
+      <c r="F19">
+        <v>-0.01647116937618389</v>
+      </c>
+      <c r="G19">
+        <v>-0.009679504922284067</v>
+      </c>
+      <c r="H19">
+        <v>0.05681858610542304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.00255838170063157</v>
+        <v>0.004228339397225366</v>
       </c>
       <c r="C20">
-        <v>0.02519152840986674</v>
+        <v>-0.04272097037819817</v>
       </c>
       <c r="D20">
-        <v>0.08461151275474611</v>
+        <v>-0.09052281199469792</v>
       </c>
       <c r="E20">
-        <v>-0.03504048414493138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02532611953790803</v>
+      </c>
+      <c r="F20">
+        <v>-0.02671795133716827</v>
+      </c>
+      <c r="G20">
+        <v>0.01674966381921723</v>
+      </c>
+      <c r="H20">
+        <v>0.05627596436995479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005327451741937139</v>
+        <v>0.003851714967504191</v>
       </c>
       <c r="C21">
-        <v>0.02693401199008927</v>
+        <v>-0.04544501996818121</v>
       </c>
       <c r="D21">
-        <v>0.1614191842605272</v>
+        <v>-0.1307790626620119</v>
       </c>
       <c r="E21">
-        <v>-0.08553139539271729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03310584022621251</v>
+      </c>
+      <c r="F21">
+        <v>-0.09766481491730213</v>
+      </c>
+      <c r="G21">
+        <v>-0.007329120101277176</v>
+      </c>
+      <c r="H21">
+        <v>0.1946322447131529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0006078732192029046</v>
+        <v>-0.01346607790666087</v>
       </c>
       <c r="C22">
-        <v>0.06367259533029734</v>
+        <v>-0.08844084376613132</v>
       </c>
       <c r="D22">
-        <v>0.2520349857077773</v>
+        <v>-0.2542774255832255</v>
       </c>
       <c r="E22">
-        <v>0.01068861957912731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06395250375479224</v>
+      </c>
+      <c r="F22">
+        <v>-0.003420540921592875</v>
+      </c>
+      <c r="G22">
+        <v>-0.4193032253005412</v>
+      </c>
+      <c r="H22">
+        <v>-0.3686513156187585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0003264090552175291</v>
+        <v>-0.01024632761585897</v>
       </c>
       <c r="C23">
-        <v>0.06417045419083783</v>
+        <v>-0.09013006576818937</v>
       </c>
       <c r="D23">
-        <v>0.251435584844758</v>
+        <v>-0.2568743434210323</v>
       </c>
       <c r="E23">
-        <v>0.01056007132735798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.05919427655537747</v>
+      </c>
+      <c r="F23">
+        <v>-0.006719164495626841</v>
+      </c>
+      <c r="G23">
+        <v>-0.4064110786166996</v>
+      </c>
+      <c r="H23">
+        <v>-0.3544255837119029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02339653595914638</v>
+        <v>0.009327426010605875</v>
       </c>
       <c r="C24">
-        <v>0.05717374223854809</v>
+        <v>-0.06712562179751171</v>
       </c>
       <c r="D24">
-        <v>0.06258504269123741</v>
+        <v>-0.04687139413467308</v>
       </c>
       <c r="E24">
-        <v>0.00371876325652171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02948126607323975</v>
+      </c>
+      <c r="F24">
+        <v>0.004933923746733853</v>
+      </c>
+      <c r="G24">
+        <v>0.01559593225853502</v>
+      </c>
+      <c r="H24">
+        <v>0.07034473167459004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02439862472867935</v>
+        <v>0.01351155930775957</v>
       </c>
       <c r="C25">
-        <v>0.04874942098930417</v>
+        <v>-0.06141982687175203</v>
       </c>
       <c r="D25">
-        <v>0.05866547422882103</v>
+        <v>-0.04885031910419663</v>
       </c>
       <c r="E25">
-        <v>-0.002677195499345385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01478838923205326</v>
+      </c>
+      <c r="F25">
+        <v>0.006488367374485881</v>
+      </c>
+      <c r="G25">
+        <v>0.01648639001260995</v>
+      </c>
+      <c r="H25">
+        <v>0.03472081060519346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.006238556310554691</v>
+        <v>0.0142365052746622</v>
       </c>
       <c r="C26">
-        <v>0.01496415929368636</v>
+        <v>-0.02732634498705896</v>
       </c>
       <c r="D26">
-        <v>0.08713073981606291</v>
+        <v>-0.06899662722512802</v>
       </c>
       <c r="E26">
-        <v>-0.02287015983418269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04472668371499776</v>
+      </c>
+      <c r="F26">
+        <v>-0.04324038679804545</v>
+      </c>
+      <c r="G26">
+        <v>0.01301204323753568</v>
+      </c>
+      <c r="H26">
+        <v>0.09715026278880812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2625828322535159</v>
+        <v>0.3209757735515993</v>
       </c>
       <c r="C28">
-        <v>-0.1942100387076987</v>
+        <v>0.08783730106871132</v>
       </c>
       <c r="D28">
-        <v>0.0162007026015648</v>
+        <v>0.01756669515757925</v>
       </c>
       <c r="E28">
-        <v>-0.05706808714667951</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0503997360423514</v>
+      </c>
+      <c r="F28">
+        <v>-0.04539097893864917</v>
+      </c>
+      <c r="G28">
+        <v>-0.0532619319281273</v>
+      </c>
+      <c r="H28">
+        <v>-0.002691314189463753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.002238710085086893</v>
+        <v>0.0003942382778993545</v>
       </c>
       <c r="C29">
-        <v>0.02059856859674918</v>
+        <v>-0.03679874592031897</v>
       </c>
       <c r="D29">
-        <v>0.09613983772124141</v>
+        <v>-0.1034401067613336</v>
       </c>
       <c r="E29">
-        <v>-0.02129965855318526</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05968832199131192</v>
+      </c>
+      <c r="F29">
+        <v>-0.03967181092500317</v>
+      </c>
+      <c r="G29">
+        <v>0.01493815477470022</v>
+      </c>
+      <c r="H29">
+        <v>0.135826523276756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02273442450415094</v>
+        <v>0.01369243620893063</v>
       </c>
       <c r="C30">
-        <v>0.0595088971167114</v>
+        <v>-0.08822353573419507</v>
       </c>
       <c r="D30">
-        <v>0.1654924871897317</v>
+        <v>-0.1457632552270341</v>
       </c>
       <c r="E30">
-        <v>-0.02956131371859667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05679049183781203</v>
+      </c>
+      <c r="F30">
+        <v>-0.0266076465872964</v>
+      </c>
+      <c r="G30">
+        <v>-0.01879430391738719</v>
+      </c>
+      <c r="H30">
+        <v>0.05015582106895797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03621010933621013</v>
+        <v>0.007589436527608914</v>
       </c>
       <c r="C31">
-        <v>0.08499935485377326</v>
+        <v>-0.09443365231472345</v>
       </c>
       <c r="D31">
-        <v>0.06756212633711443</v>
+        <v>-0.03878756444804762</v>
       </c>
       <c r="E31">
-        <v>-0.01560314014256399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01996759914379254</v>
+      </c>
+      <c r="F31">
+        <v>-0.01394158755849904</v>
+      </c>
+      <c r="G31">
+        <v>0.005249440514649241</v>
+      </c>
+      <c r="H31">
+        <v>0.04641946456697338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01683583911319124</v>
+        <v>0.00866516975563765</v>
       </c>
       <c r="C32">
-        <v>0.03308883749060378</v>
+        <v>-0.04920438776557266</v>
       </c>
       <c r="D32">
-        <v>0.09422308689251396</v>
+        <v>-0.1063282960596461</v>
       </c>
       <c r="E32">
-        <v>-0.0706472429866829</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.003246782524964723</v>
+      </c>
+      <c r="F32">
+        <v>-0.0525720435739632</v>
+      </c>
+      <c r="G32">
+        <v>-0.01154190438222442</v>
+      </c>
+      <c r="H32">
+        <v>0.05299079842698318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.009073860339995063</v>
+        <v>0.005508693466311838</v>
       </c>
       <c r="C33">
-        <v>0.04075048925206964</v>
+        <v>-0.06080134349189054</v>
       </c>
       <c r="D33">
-        <v>0.138468690270514</v>
+        <v>-0.1206316181077873</v>
       </c>
       <c r="E33">
-        <v>-0.04549664693718935</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02910418712737935</v>
+      </c>
+      <c r="F33">
+        <v>-0.02668049992609689</v>
+      </c>
+      <c r="G33">
+        <v>0.008331927797441702</v>
+      </c>
+      <c r="H33">
+        <v>0.06414218689601893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02069336445478442</v>
+        <v>0.007125489213810992</v>
       </c>
       <c r="C34">
-        <v>0.05867858494649679</v>
+        <v>-0.06208974780284398</v>
       </c>
       <c r="D34">
-        <v>0.05285261671177376</v>
+        <v>-0.02793433816640136</v>
       </c>
       <c r="E34">
-        <v>0.04546384859157551</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02931342725050617</v>
+      </c>
+      <c r="F34">
+        <v>0.03998042206931506</v>
+      </c>
+      <c r="G34">
+        <v>0.02030279866951077</v>
+      </c>
+      <c r="H34">
+        <v>0.0516261122927183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0022793072227648</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01108194457880411</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.0331219522583194</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.004735955125705994</v>
+      </c>
+      <c r="F35">
+        <v>-0.01751811526687709</v>
+      </c>
+      <c r="G35">
+        <v>0.00850331150221793</v>
+      </c>
+      <c r="H35">
+        <v>0.0520856078125527</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.006689096950394588</v>
+        <v>0.01083056582550227</v>
       </c>
       <c r="C36">
-        <v>0.006043963544827934</v>
+        <v>-0.02245902019248079</v>
       </c>
       <c r="D36">
-        <v>0.08627855966313577</v>
+        <v>-0.07597560422563172</v>
       </c>
       <c r="E36">
-        <v>-0.04779206353112601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02898164488667504</v>
+      </c>
+      <c r="F36">
+        <v>-0.04958796243188605</v>
+      </c>
+      <c r="G36">
+        <v>0.003759526656506101</v>
+      </c>
+      <c r="H36">
+        <v>0.06528758279733643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005759151201824925</v>
+        <v>0.01172923422145109</v>
       </c>
       <c r="C38">
-        <v>0.006609155575321129</v>
+        <v>-0.02365413832697343</v>
       </c>
       <c r="D38">
-        <v>0.09112278460197919</v>
+        <v>-0.08718259953931415</v>
       </c>
       <c r="E38">
-        <v>-0.01282430548244761</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.006508508924778771</v>
+      </c>
+      <c r="F38">
+        <v>-0.001272029397597434</v>
+      </c>
+      <c r="G38">
+        <v>-0.0153323846425407</v>
+      </c>
+      <c r="H38">
+        <v>0.06888653738367892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01522617935980204</v>
+        <v>0.002758154715092368</v>
       </c>
       <c r="C39">
-        <v>0.05758263204725433</v>
+        <v>-0.07759702481392042</v>
       </c>
       <c r="D39">
-        <v>0.1121822886118273</v>
+        <v>-0.09151218471525423</v>
       </c>
       <c r="E39">
-        <v>0.01053987692020305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05384754518362597</v>
+      </c>
+      <c r="F39">
+        <v>0.005926265391504554</v>
+      </c>
+      <c r="G39">
+        <v>0.02258814777596851</v>
+      </c>
+      <c r="H39">
+        <v>0.09839472736622447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01540725275077575</v>
+        <v>0.01333274037960803</v>
       </c>
       <c r="C40">
-        <v>0.02332278611869415</v>
+        <v>-0.0375989145811069</v>
       </c>
       <c r="D40">
-        <v>0.1134359537440306</v>
+        <v>-0.09407613703729101</v>
       </c>
       <c r="E40">
-        <v>0.005763254289868096</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04231978898117948</v>
+      </c>
+      <c r="F40">
+        <v>0.01341196597520437</v>
+      </c>
+      <c r="G40">
+        <v>-0.05908319917665883</v>
+      </c>
+      <c r="H40">
+        <v>0.104734869094807</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009474342295863063</v>
+        <v>0.01545212901829333</v>
       </c>
       <c r="C41">
-        <v>0.004117248929315529</v>
+        <v>-0.01958962694635128</v>
       </c>
       <c r="D41">
-        <v>0.04476686110497984</v>
+        <v>-0.04865784742847892</v>
       </c>
       <c r="E41">
-        <v>-0.03370665339119982</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.005987228348061051</v>
+      </c>
+      <c r="F41">
+        <v>-0.0246261323798024</v>
+      </c>
+      <c r="G41">
+        <v>0.0006659146407703551</v>
+      </c>
+      <c r="H41">
+        <v>0.04616923595827682</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00151434737117989</v>
+        <v>0.008152765019572586</v>
       </c>
       <c r="C43">
-        <v>0.004402894433488721</v>
+        <v>-0.01603467074606147</v>
       </c>
       <c r="D43">
-        <v>0.05425058442713387</v>
+        <v>-0.05258818237599423</v>
       </c>
       <c r="E43">
-        <v>-0.02399685624305426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01001945929841189</v>
+      </c>
+      <c r="F43">
+        <v>-0.02080256261969432</v>
+      </c>
+      <c r="G43">
+        <v>-0.001784415321950788</v>
+      </c>
+      <c r="H43">
+        <v>0.05532857284927095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01683778979762771</v>
+        <v>0.01164625509701977</v>
       </c>
       <c r="C44">
-        <v>0.02524171693773446</v>
+        <v>-0.04976654447120687</v>
       </c>
       <c r="D44">
-        <v>0.1018011972331003</v>
+        <v>-0.1070768558667665</v>
       </c>
       <c r="E44">
-        <v>-0.05078277914145821</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03874589514191709</v>
+      </c>
+      <c r="F44">
+        <v>-0.03670499597142897</v>
+      </c>
+      <c r="G44">
+        <v>-0.02549946431054698</v>
+      </c>
+      <c r="H44">
+        <v>0.05847313116636119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.004742628532811852</v>
+        <v>-0.000762752769270233</v>
       </c>
       <c r="C46">
-        <v>0.02877013306706029</v>
+        <v>-0.04125931546669654</v>
       </c>
       <c r="D46">
-        <v>0.08862779557276322</v>
+        <v>-0.07423357143109345</v>
       </c>
       <c r="E46">
-        <v>-0.02158478293206241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04387813245942976</v>
+      </c>
+      <c r="F46">
+        <v>-0.03313454654883771</v>
+      </c>
+      <c r="G46">
+        <v>0.0002560887616242463</v>
+      </c>
+      <c r="H46">
+        <v>0.1302432728073444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07705933592513993</v>
+        <v>0.03109239325801236</v>
       </c>
       <c r="C47">
-        <v>0.107757536017669</v>
+        <v>-0.1269073321838592</v>
       </c>
       <c r="D47">
-        <v>0.05760467712590243</v>
+        <v>-0.02301556653542881</v>
       </c>
       <c r="E47">
-        <v>-0.03326603629268045</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.006375628278926122</v>
+      </c>
+      <c r="F47">
+        <v>0.004883958528899595</v>
+      </c>
+      <c r="G47">
+        <v>0.04968877913750689</v>
+      </c>
+      <c r="H47">
+        <v>0.05034806069193735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.008322483252978142</v>
+        <v>0.01253373440316629</v>
       </c>
       <c r="C48">
-        <v>0.01544489595830387</v>
+        <v>-0.03271938426767437</v>
       </c>
       <c r="D48">
-        <v>0.09121325483098967</v>
+        <v>-0.08132615866655619</v>
       </c>
       <c r="E48">
-        <v>-0.05945402153017987</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02282682408915145</v>
+      </c>
+      <c r="F48">
+        <v>-0.05878194569603976</v>
+      </c>
+      <c r="G48">
+        <v>0.004542942951105614</v>
+      </c>
+      <c r="H48">
+        <v>0.1065555305281937</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03386089987798785</v>
+        <v>0.01180411860375646</v>
       </c>
       <c r="C50">
-        <v>0.05902615878973391</v>
+        <v>-0.07634855433579037</v>
       </c>
       <c r="D50">
-        <v>0.062295123603131</v>
+        <v>-0.04779931214914721</v>
       </c>
       <c r="E50">
-        <v>-0.01037031867196252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01336543526269498</v>
+      </c>
+      <c r="F50">
+        <v>-0.007102511312182581</v>
+      </c>
+      <c r="G50">
+        <v>-0.004968824496098911</v>
+      </c>
+      <c r="H50">
+        <v>0.03465706323011225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002320593305398341</v>
+        <v>-0.0009458984312328232</v>
       </c>
       <c r="C51">
-        <v>0.004778871645205219</v>
+        <v>-0.01700584809854942</v>
       </c>
       <c r="D51">
-        <v>0.05599918375339708</v>
+        <v>-0.05668128208094102</v>
       </c>
       <c r="E51">
-        <v>-0.006832640779746111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03889908826826381</v>
+      </c>
+      <c r="F51">
+        <v>-0.04114425848415496</v>
+      </c>
+      <c r="G51">
+        <v>-0.01943287155328982</v>
+      </c>
+      <c r="H51">
+        <v>0.05476945208189905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1059083648401356</v>
+        <v>0.05250629575741141</v>
       </c>
       <c r="C53">
-        <v>0.1268803191454031</v>
+        <v>-0.1577443668919229</v>
       </c>
       <c r="D53">
-        <v>0.007238940826440179</v>
+        <v>0.02366544778923145</v>
       </c>
       <c r="E53">
-        <v>-0.06048668274280789</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03024189117563528</v>
+      </c>
+      <c r="F53">
+        <v>-0.04837412683701128</v>
+      </c>
+      <c r="G53">
+        <v>0.001654230604157591</v>
+      </c>
+      <c r="H53">
+        <v>0.008986908566574308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.009756553055952973</v>
+        <v>0.009089677744736664</v>
       </c>
       <c r="C54">
-        <v>0.02036144883594452</v>
+        <v>-0.03787342045731826</v>
       </c>
       <c r="D54">
-        <v>0.0920132243320587</v>
+        <v>-0.07747692181480438</v>
       </c>
       <c r="E54">
-        <v>-0.009400421220450764</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01690789791494681</v>
+      </c>
+      <c r="F54">
+        <v>-0.002519573753421597</v>
+      </c>
+      <c r="G54">
+        <v>-0.01178900172016264</v>
+      </c>
+      <c r="H54">
+        <v>0.08071261455569836</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09315664424796564</v>
+        <v>0.04000428169195443</v>
       </c>
       <c r="C55">
-        <v>0.1077180216380201</v>
+        <v>-0.1316407610965034</v>
       </c>
       <c r="D55">
-        <v>0.006559767232905221</v>
+        <v>0.03247183388684814</v>
       </c>
       <c r="E55">
-        <v>-0.009004891788907267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.004563567505122084</v>
+      </c>
+      <c r="F55">
+        <v>-0.0120968643892782</v>
+      </c>
+      <c r="G55">
+        <v>-0.001829653694316075</v>
+      </c>
+      <c r="H55">
+        <v>0.01597500586732221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1313461476930187</v>
+        <v>0.05467076305195683</v>
       </c>
       <c r="C56">
-        <v>0.1453923299612225</v>
+        <v>-0.1899035131287828</v>
       </c>
       <c r="D56">
-        <v>0.0006783606327442881</v>
+        <v>0.03398123811717051</v>
       </c>
       <c r="E56">
-        <v>-0.009939186180893502</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03174532713728772</v>
+      </c>
+      <c r="F56">
+        <v>-0.01418237427593898</v>
+      </c>
+      <c r="G56">
+        <v>-0.05118178533190462</v>
+      </c>
+      <c r="H56">
+        <v>0.01268603888456805</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.006918553292444334</v>
+        <v>0.007057135372547637</v>
       </c>
       <c r="C58">
-        <v>0.01015480274173452</v>
+        <v>-0.05526349798013559</v>
       </c>
       <c r="D58">
-        <v>0.2170309196302661</v>
+        <v>-0.2787313467583447</v>
       </c>
       <c r="E58">
-        <v>-0.0849792868159268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02181192624324194</v>
+      </c>
+      <c r="F58">
+        <v>-0.1071440384598822</v>
+      </c>
+      <c r="G58">
+        <v>-0.146907045170944</v>
+      </c>
+      <c r="H58">
+        <v>-0.0913337332193653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1841690303770645</v>
+        <v>0.2541284516507503</v>
       </c>
       <c r="C59">
-        <v>-0.1447038569922423</v>
+        <v>0.05837613426049055</v>
       </c>
       <c r="D59">
-        <v>0.04472391633057127</v>
+        <v>-0.05582417548714885</v>
       </c>
       <c r="E59">
-        <v>-0.03736159579469776</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01964826682078771</v>
+      </c>
+      <c r="F59">
+        <v>-0.02266296809889281</v>
+      </c>
+      <c r="G59">
+        <v>-0.009849895026008389</v>
+      </c>
+      <c r="H59">
+        <v>0.0007729339337115698</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1815792299686132</v>
+        <v>0.1462734935825133</v>
       </c>
       <c r="C60">
-        <v>0.1075439409386701</v>
+        <v>-0.1761758795713926</v>
       </c>
       <c r="D60">
-        <v>0.208136964476683</v>
+        <v>-0.08541814559089173</v>
       </c>
       <c r="E60">
-        <v>0.1562238962397824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1624868412985827</v>
+      </c>
+      <c r="F60">
+        <v>0.222244232793398</v>
+      </c>
+      <c r="G60">
+        <v>0.2109997014477901</v>
+      </c>
+      <c r="H60">
+        <v>-0.2441959634650424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02524731234069731</v>
+        <v>0.01081474254566587</v>
       </c>
       <c r="C61">
-        <v>0.05379829801816877</v>
+        <v>-0.07559347720974954</v>
       </c>
       <c r="D61">
-        <v>0.09784091243036315</v>
+        <v>-0.07651928325226981</v>
       </c>
       <c r="E61">
-        <v>0.00175972348259742</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03833843521544578</v>
+      </c>
+      <c r="F61">
+        <v>0.01383788069176575</v>
+      </c>
+      <c r="G61">
+        <v>0.03826793323966491</v>
+      </c>
+      <c r="H61">
+        <v>0.08581033474309259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.006277826266142738</v>
+        <v>0.007807885239831972</v>
       </c>
       <c r="C63">
-        <v>0.02453372698361311</v>
+        <v>-0.03708601186792793</v>
       </c>
       <c r="D63">
-        <v>0.09835237881602157</v>
+        <v>-0.06843876025036036</v>
       </c>
       <c r="E63">
-        <v>-0.01885356956781571</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05998194961060428</v>
+      </c>
+      <c r="F63">
+        <v>-0.02536814516932129</v>
+      </c>
+      <c r="G63">
+        <v>0.006436308618922026</v>
+      </c>
+      <c r="H63">
+        <v>0.06879395841116111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05404534931383576</v>
+        <v>0.01544597642580534</v>
       </c>
       <c r="C64">
-        <v>0.08441698842764539</v>
+        <v>-0.1047737605046797</v>
       </c>
       <c r="D64">
-        <v>0.03171011757986913</v>
+        <v>-0.01519373156750554</v>
       </c>
       <c r="E64">
-        <v>-0.01513624945819965</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02522451999700459</v>
+      </c>
+      <c r="F64">
+        <v>-0.01755505456302541</v>
+      </c>
+      <c r="G64">
+        <v>0.05418719549393247</v>
+      </c>
+      <c r="H64">
+        <v>0.07831615032329543</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0246697288121732</v>
+        <v>0.02137134101496715</v>
       </c>
       <c r="C65">
-        <v>0.01490232343206513</v>
+        <v>-0.04392228039983635</v>
       </c>
       <c r="D65">
-        <v>0.1137470337139004</v>
+        <v>-0.114066389758746</v>
       </c>
       <c r="E65">
-        <v>-0.01041502247979656</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04473906627231251</v>
+      </c>
+      <c r="F65">
+        <v>0.00674917252194197</v>
+      </c>
+      <c r="G65">
+        <v>0.0297154150006875</v>
+      </c>
+      <c r="H65">
+        <v>0.01211001058305938</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01990184435306933</v>
+        <v>0.0003659072718443999</v>
       </c>
       <c r="C66">
-        <v>0.06618427659386172</v>
+        <v>-0.09593436258401665</v>
       </c>
       <c r="D66">
-        <v>0.1204260285439237</v>
+        <v>-0.1167087002657737</v>
       </c>
       <c r="E66">
-        <v>0.01343506487330768</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04233572782868322</v>
+      </c>
+      <c r="F66">
+        <v>0.01184218309608204</v>
+      </c>
+      <c r="G66">
+        <v>-0.00478972409658552</v>
+      </c>
+      <c r="H66">
+        <v>0.06509310819700276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02359766134315298</v>
+        <v>0.02167189062666956</v>
       </c>
       <c r="C67">
-        <v>0.02003442365173785</v>
+        <v>-0.03504471959015409</v>
       </c>
       <c r="D67">
-        <v>0.0481648632388585</v>
+        <v>-0.04142556122745379</v>
       </c>
       <c r="E67">
-        <v>0.01525474402473643</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01198013330139827</v>
+      </c>
+      <c r="F67">
+        <v>0.02718823239545951</v>
+      </c>
+      <c r="G67">
+        <v>0.0009005635052961201</v>
+      </c>
+      <c r="H67">
+        <v>0.06934718424298675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2066337036779851</v>
+        <v>0.275126410216456</v>
       </c>
       <c r="C68">
-        <v>-0.1534691530926367</v>
+        <v>0.06560042535445974</v>
       </c>
       <c r="D68">
-        <v>0.03017316365156484</v>
+        <v>-0.02661205972711154</v>
       </c>
       <c r="E68">
-        <v>-0.008915854810698983</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003781958869514912</v>
+      </c>
+      <c r="F68">
+        <v>-0.024962299636073</v>
+      </c>
+      <c r="G68">
+        <v>-0.0742344885403714</v>
+      </c>
+      <c r="H68">
+        <v>-0.04768922323285325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05307239879970096</v>
+        <v>0.01600631112351629</v>
       </c>
       <c r="C69">
-        <v>0.1160658026291674</v>
+        <v>-0.118427276069705</v>
       </c>
       <c r="D69">
-        <v>0.0791261131452891</v>
+        <v>-0.02932651884161029</v>
       </c>
       <c r="E69">
-        <v>-0.01951257139281191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008582394408422312</v>
+      </c>
+      <c r="F69">
+        <v>0.007788474656961028</v>
+      </c>
+      <c r="G69">
+        <v>0.02881078745758181</v>
+      </c>
+      <c r="H69">
+        <v>0.04321124074181983</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2175662572342884</v>
+        <v>0.2765211249797808</v>
       </c>
       <c r="C71">
-        <v>-0.1759156465917256</v>
+        <v>0.07752811728179594</v>
       </c>
       <c r="D71">
-        <v>0.01754304959206637</v>
+        <v>-0.01530084313967295</v>
       </c>
       <c r="E71">
-        <v>-0.01224648932579171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0007705038831975779</v>
+      </c>
+      <c r="F71">
+        <v>-0.02041563037304704</v>
+      </c>
+      <c r="G71">
+        <v>-0.03931286183374613</v>
+      </c>
+      <c r="H71">
+        <v>0.02115216419841872</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09994958169922023</v>
+        <v>0.0529968101868395</v>
       </c>
       <c r="C72">
-        <v>0.07929366288234212</v>
+        <v>-0.1262701609037297</v>
       </c>
       <c r="D72">
-        <v>0.1075822737201876</v>
+        <v>-0.05668048171441961</v>
       </c>
       <c r="E72">
-        <v>0.03857376317797653</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.06788623789664754</v>
+      </c>
+      <c r="F72">
+        <v>0.0244437119910081</v>
+      </c>
+      <c r="G72">
+        <v>0.0386411847500393</v>
+      </c>
+      <c r="H72">
+        <v>0.04695028042743091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1694561908483617</v>
+        <v>0.1377084008085403</v>
       </c>
       <c r="C73">
-        <v>0.07202301155431531</v>
+        <v>-0.1505507996138668</v>
       </c>
       <c r="D73">
-        <v>0.2765123565229788</v>
+        <v>-0.09444452849693129</v>
       </c>
       <c r="E73">
-        <v>0.2314517382513743</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2850294155159671</v>
+      </c>
+      <c r="F73">
+        <v>0.3101756765584818</v>
+      </c>
+      <c r="G73">
+        <v>0.3925650425338039</v>
+      </c>
+      <c r="H73">
+        <v>-0.1937406962761012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1051118017648643</v>
+        <v>0.0474022204480551</v>
       </c>
       <c r="C74">
-        <v>0.1174145283397632</v>
+        <v>-0.1454935686390934</v>
       </c>
       <c r="D74">
-        <v>-0.01994081003835699</v>
+        <v>0.0441568147682794</v>
       </c>
       <c r="E74">
-        <v>-0.03775916254346814</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01215839166654213</v>
+      </c>
+      <c r="F74">
+        <v>-0.03517899403250924</v>
+      </c>
+      <c r="G74">
+        <v>0.005765713780929179</v>
+      </c>
+      <c r="H74">
+        <v>-0.01252145658750168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.227805294007194</v>
+        <v>0.1025131508345358</v>
       </c>
       <c r="C75">
-        <v>0.2048307742862449</v>
+        <v>-0.2691936484008723</v>
       </c>
       <c r="D75">
-        <v>-0.1051327754800533</v>
+        <v>0.1368326280053694</v>
       </c>
       <c r="E75">
-        <v>0.03020408633271013</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09071292080063934</v>
+      </c>
+      <c r="F75">
+        <v>0.0279713006299689</v>
+      </c>
+      <c r="G75">
+        <v>-0.09709511996142597</v>
+      </c>
+      <c r="H75">
+        <v>0.02720065077711269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1376226091465967</v>
+        <v>0.05919282903331533</v>
       </c>
       <c r="C76">
-        <v>0.1415517504901349</v>
+        <v>-0.1831706260214939</v>
       </c>
       <c r="D76">
-        <v>0.01267141269383422</v>
+        <v>0.04123709233441511</v>
       </c>
       <c r="E76">
-        <v>-0.0111795133375597</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0228883622035515</v>
+      </c>
+      <c r="F76">
+        <v>-0.002790965859619863</v>
+      </c>
+      <c r="G76">
+        <v>-0.03172221579297595</v>
+      </c>
+      <c r="H76">
+        <v>0.04051709394670043</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.02022732166511403</v>
+        <v>0.000781498615820841</v>
       </c>
       <c r="C77">
-        <v>0.06666026416750946</v>
+        <v>-0.1068951141424616</v>
       </c>
       <c r="D77">
-        <v>-0.009405478279494806</v>
+        <v>-0.3246518179924275</v>
       </c>
       <c r="E77">
-        <v>-0.2355558544527368</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8409288114799035</v>
+      </c>
+      <c r="F77">
+        <v>0.2176886596063001</v>
+      </c>
+      <c r="G77">
+        <v>0.1902349639231667</v>
+      </c>
+      <c r="H77">
+        <v>-0.1610993259216358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02603935842819615</v>
+        <v>0.01701349018127775</v>
       </c>
       <c r="C78">
-        <v>0.06966959943071484</v>
+        <v>-0.09205592291983355</v>
       </c>
       <c r="D78">
-        <v>0.1481173086734462</v>
+        <v>-0.1132049364186577</v>
       </c>
       <c r="E78">
-        <v>-0.04761540710044028</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06885641438864955</v>
+      </c>
+      <c r="F78">
+        <v>-0.04240600912452343</v>
+      </c>
+      <c r="G78">
+        <v>-0.03461202347887324</v>
+      </c>
+      <c r="H78">
+        <v>0.03472771405914182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.09430170795048795</v>
+        <v>0.03358814983402725</v>
       </c>
       <c r="C79">
-        <v>0.1778068816473695</v>
+        <v>-0.1945036759306174</v>
       </c>
       <c r="D79">
-        <v>-0.1340414540412205</v>
+        <v>0.07635241776245752</v>
       </c>
       <c r="E79">
-        <v>-0.7951083973659716</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05385132669717593</v>
+      </c>
+      <c r="F79">
+        <v>-0.7817189418243232</v>
+      </c>
+      <c r="G79">
+        <v>0.3576366665760308</v>
+      </c>
+      <c r="H79">
+        <v>-0.3399514155244603</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.003045109371202008</v>
+        <v>0.003306486783453104</v>
       </c>
       <c r="C80">
-        <v>0.04510816125137003</v>
+        <v>-0.04639507694861439</v>
       </c>
       <c r="D80">
-        <v>0.05501407971931217</v>
+        <v>-0.04258299797883104</v>
       </c>
       <c r="E80">
-        <v>0.004605821003039405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04564831474997503</v>
+      </c>
+      <c r="F80">
+        <v>-0.00460443377152866</v>
+      </c>
+      <c r="G80">
+        <v>-0.007295382087198704</v>
+      </c>
+      <c r="H80">
+        <v>0.03072129432716972</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1179302659707756</v>
+        <v>0.04123987142673308</v>
       </c>
       <c r="C81">
-        <v>0.1372527467816684</v>
+        <v>-0.1679868664702673</v>
       </c>
       <c r="D81">
-        <v>-0.07042488710652803</v>
+        <v>0.0786358376807564</v>
       </c>
       <c r="E81">
-        <v>-0.05537297249609938</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04992931800896364</v>
+      </c>
+      <c r="F81">
+        <v>-0.06486568335339271</v>
+      </c>
+      <c r="G81">
+        <v>-0.04708731519194717</v>
+      </c>
+      <c r="H81">
+        <v>0.0795430724698146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2457036106474999</v>
+        <v>0.08655442285209534</v>
       </c>
       <c r="C82">
-        <v>0.3025456263533839</v>
+        <v>-0.3213224553834466</v>
       </c>
       <c r="D82">
-        <v>-0.2037514637776176</v>
+        <v>0.2450767851415771</v>
       </c>
       <c r="E82">
-        <v>0.1508582779697885</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06317349403864632</v>
+      </c>
+      <c r="F82">
+        <v>0.1096333179949396</v>
+      </c>
+      <c r="G82">
+        <v>-0.08874545101586293</v>
+      </c>
+      <c r="H82">
+        <v>0.1172160577065528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.007889979576402358</v>
+        <v>-0.01288496005978036</v>
       </c>
       <c r="C83">
-        <v>0.05046330886395825</v>
+        <v>-0.02524088860127189</v>
       </c>
       <c r="D83">
-        <v>-0.004031691072290238</v>
+        <v>-0.02460244336790625</v>
       </c>
       <c r="E83">
-        <v>-0.05782278726555339</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07931720524831834</v>
+      </c>
+      <c r="F83">
+        <v>-0.070695058829726</v>
+      </c>
+      <c r="G83">
+        <v>-0.03671687091937337</v>
+      </c>
+      <c r="H83">
+        <v>0.08983529979743596</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001513472594846724</v>
+        <v>-0.0008631244401300034</v>
       </c>
       <c r="C84">
-        <v>-0.0002258589713764065</v>
+        <v>-0.02082768819352932</v>
       </c>
       <c r="D84">
-        <v>0.009242413997597728</v>
+        <v>-0.04811397387154455</v>
       </c>
       <c r="E84">
-        <v>0.001867640329705977</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.004577569819336797</v>
+      </c>
+      <c r="F84">
+        <v>-0.02766135973946348</v>
+      </c>
+      <c r="G84">
+        <v>-0.04381341370283579</v>
+      </c>
+      <c r="H84">
+        <v>0.02479299073508018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1384000723143013</v>
+        <v>0.05456418726518696</v>
       </c>
       <c r="C85">
-        <v>0.1417358011061051</v>
+        <v>-0.1832222639360109</v>
       </c>
       <c r="D85">
-        <v>-0.04011628002162322</v>
+        <v>0.09208237822955105</v>
       </c>
       <c r="E85">
-        <v>-0.02342781776044329</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0009445458644342611</v>
+      </c>
+      <c r="F85">
+        <v>-0.07277959201118878</v>
+      </c>
+      <c r="G85">
+        <v>-0.02057068731411252</v>
+      </c>
+      <c r="H85">
+        <v>-0.001134889822123368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01609810762743362</v>
+        <v>0.01273918000661087</v>
       </c>
       <c r="C86">
-        <v>0.01458696328808713</v>
+        <v>-0.03507426029496513</v>
       </c>
       <c r="D86">
-        <v>0.08516005056919659</v>
+        <v>-0.1029734269301309</v>
       </c>
       <c r="E86">
-        <v>-0.05394738915785664</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02093893394516353</v>
+      </c>
+      <c r="F86">
+        <v>0.003380228065366237</v>
+      </c>
+      <c r="G86">
+        <v>0.01915820138588834</v>
+      </c>
+      <c r="H86">
+        <v>0.0190937064455527</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02058524550119118</v>
+        <v>0.01285248647910549</v>
       </c>
       <c r="C87">
-        <v>0.02692452830675389</v>
+        <v>-0.06063472177261656</v>
       </c>
       <c r="D87">
-        <v>0.1326051245466685</v>
+        <v>-0.1409369150492305</v>
       </c>
       <c r="E87">
-        <v>-0.05582284124399662</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.0162933884360416</v>
+      </c>
+      <c r="F87">
+        <v>-0.03912637129356782</v>
+      </c>
+      <c r="G87">
+        <v>-0.04684045934231395</v>
+      </c>
+      <c r="H87">
+        <v>0.05215537110999453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05154070618876869</v>
+        <v>0.03213006125636067</v>
       </c>
       <c r="C88">
-        <v>0.04531886980713993</v>
+        <v>-0.06869713223807812</v>
       </c>
       <c r="D88">
-        <v>0.03013336700586871</v>
+        <v>-0.0165736196158989</v>
       </c>
       <c r="E88">
-        <v>-0.03198207846583304</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02855985820271832</v>
+      </c>
+      <c r="F88">
+        <v>-0.02028671262618625</v>
+      </c>
+      <c r="G88">
+        <v>0.0142258360788238</v>
+      </c>
+      <c r="H88">
+        <v>0.01359748310201856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3280241358694796</v>
+        <v>0.4092952191068234</v>
       </c>
       <c r="C89">
-        <v>-0.3209206019572437</v>
+        <v>0.1484455241097081</v>
       </c>
       <c r="D89">
-        <v>0.009596834197656728</v>
+        <v>-0.02987392424148777</v>
       </c>
       <c r="E89">
-        <v>-0.1019434579792821</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05184127018118263</v>
+      </c>
+      <c r="F89">
+        <v>-0.06646491250647199</v>
+      </c>
+      <c r="G89">
+        <v>-0.009720487251429842</v>
+      </c>
+      <c r="H89">
+        <v>0.1181490674518407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2601417731972786</v>
+        <v>0.3220641839607072</v>
       </c>
       <c r="C90">
-        <v>-0.2335991236974043</v>
+        <v>0.1006927419373043</v>
       </c>
       <c r="D90">
-        <v>0.04096249428244044</v>
+        <v>-0.03633934363267695</v>
       </c>
       <c r="E90">
-        <v>0.01136364740814121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01053715589100354</v>
+      </c>
+      <c r="F90">
+        <v>0.008591880556861062</v>
+      </c>
+      <c r="G90">
+        <v>-0.06696618208997415</v>
+      </c>
+      <c r="H90">
+        <v>-0.009014975460895993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1511424071742473</v>
+        <v>0.06422566311659976</v>
       </c>
       <c r="C91">
-        <v>0.1889422311419281</v>
+        <v>-0.2086026428854963</v>
       </c>
       <c r="D91">
-        <v>-0.09447876816820507</v>
+        <v>0.1081191666557937</v>
       </c>
       <c r="E91">
-        <v>-0.08443899324823158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05822514879333886</v>
+      </c>
+      <c r="F91">
+        <v>-0.07029453595637926</v>
+      </c>
+      <c r="G91">
+        <v>-0.003950076009086</v>
+      </c>
+      <c r="H91">
+        <v>-0.000745194204468455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2458709509900643</v>
+        <v>0.3402989329285653</v>
       </c>
       <c r="C92">
-        <v>-0.2558382294401713</v>
+        <v>0.1371168524695775</v>
       </c>
       <c r="D92">
-        <v>-0.05253561230112561</v>
+        <v>-0.005171223709428326</v>
       </c>
       <c r="E92">
-        <v>-0.04406766576204445</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06201990392822503</v>
+      </c>
+      <c r="F92">
+        <v>-0.03152767003571409</v>
+      </c>
+      <c r="G92">
+        <v>-0.02750823278042534</v>
+      </c>
+      <c r="H92">
+        <v>0.02230564367820458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2864353699861767</v>
+        <v>0.3366431233087177</v>
       </c>
       <c r="C93">
-        <v>-0.2446401072091106</v>
+        <v>0.1092616101797924</v>
       </c>
       <c r="D93">
-        <v>0.01303140915402795</v>
+        <v>0.01917542777009401</v>
       </c>
       <c r="E93">
-        <v>0.001545616570226817</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0261191535369066</v>
+      </c>
+      <c r="F93">
+        <v>-0.006760822374448499</v>
+      </c>
+      <c r="G93">
+        <v>0.01696027208118942</v>
+      </c>
+      <c r="H93">
+        <v>-0.006660288112210231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.285275250856293</v>
+        <v>0.1207637943756268</v>
       </c>
       <c r="C94">
-        <v>0.2781441759988494</v>
+        <v>-0.3467151472776301</v>
       </c>
       <c r="D94">
-        <v>-0.3355771044821776</v>
+        <v>0.3613162423733122</v>
       </c>
       <c r="E94">
-        <v>0.2242698643601291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06323051996437912</v>
+      </c>
+      <c r="F94">
+        <v>0.1057916659640559</v>
+      </c>
+      <c r="G94">
+        <v>-0.322824652401996</v>
+      </c>
+      <c r="H94">
+        <v>-0.01725563631344585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01189184629729368</v>
+        <v>0.01723619961890355</v>
       </c>
       <c r="C95">
-        <v>0.03820794290417766</v>
+        <v>-0.06479900935018439</v>
       </c>
       <c r="D95">
-        <v>0.01215392763615377</v>
+        <v>-0.1069115513767191</v>
       </c>
       <c r="E95">
-        <v>-0.09906099386757883</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1578185571292219</v>
+      </c>
+      <c r="F95">
+        <v>0.01337050395901054</v>
+      </c>
+      <c r="G95">
+        <v>0.1028034390146764</v>
+      </c>
+      <c r="H95">
+        <v>0.3383224450039887</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001227599608715902</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0007148372986974782</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0004947833984985733</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003786934192800685</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003276531001463459</v>
+      </c>
+      <c r="G97">
+        <v>-0.0004980721798271068</v>
+      </c>
+      <c r="H97">
+        <v>0.003966905563581994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1430215526980333</v>
+        <v>0.113399199457765</v>
       </c>
       <c r="C98">
-        <v>0.09279537911468629</v>
+        <v>-0.1558547767887117</v>
       </c>
       <c r="D98">
-        <v>0.1583989098607727</v>
+        <v>-0.0614051631995188</v>
       </c>
       <c r="E98">
-        <v>0.1916133115438372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1978443453554216</v>
+      </c>
+      <c r="F98">
+        <v>0.2464013967407029</v>
+      </c>
+      <c r="G98">
+        <v>0.2729363310114523</v>
+      </c>
+      <c r="H98">
+        <v>-0.1999525014026488</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001507039075338682</v>
+        <v>0.0008789454186631926</v>
       </c>
       <c r="C101">
-        <v>0.01988758815097188</v>
+        <v>-0.03607481027404917</v>
       </c>
       <c r="D101">
-        <v>0.09584758264351578</v>
+        <v>-0.1026466764581078</v>
       </c>
       <c r="E101">
-        <v>-0.0224457768016534</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05899364140930214</v>
+      </c>
+      <c r="F101">
+        <v>-0.03990243438365913</v>
+      </c>
+      <c r="G101">
+        <v>0.01414675222641248</v>
+      </c>
+      <c r="H101">
+        <v>0.1363191583271562</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1026020906917564</v>
+        <v>0.026655056318539</v>
       </c>
       <c r="C102">
-        <v>0.1610109152366896</v>
+        <v>-0.1487226943670458</v>
       </c>
       <c r="D102">
-        <v>-0.06437796075961388</v>
+        <v>0.09996535659516191</v>
       </c>
       <c r="E102">
-        <v>0.05356168529894742</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03846692889596887</v>
+      </c>
+      <c r="F102">
+        <v>0.06422767607905334</v>
+      </c>
+      <c r="G102">
+        <v>0.007758232247814342</v>
+      </c>
+      <c r="H102">
+        <v>0.04564892256721897</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
